--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyuurenkai\Documents\ケアプラン\apps\有給申請\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyuurenkai\Documents\ケアプラン\apps\有給申請\paid_holiday\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -476,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -504,17 +504,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,50 +573,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +883,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,9 +894,11 @@
     <col min="7" max="7" width="6.125" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
     <col min="9" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="11" width="3.125" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
     <col min="12" max="12" width="5.125" customWidth="1"/>
-    <col min="13" max="16" width="6.5" customWidth="1"/>
+    <col min="13" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="5.875" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
     <col min="17" max="17" width="5.125" customWidth="1"/>
     <col min="18" max="18" width="6.125" customWidth="1"/>
     <col min="19" max="19" width="2.625" customWidth="1"/>
@@ -901,89 +906,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="9"/>
       <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="10"/>
       <c r="R4" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="34" t="str">
+      <c r="S4" s="23" t="str">
         <f>IF(H4="","",H4)</f>
         <v/>
       </c>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="10"/>
       <c r="R5" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="35" t="str">
+      <c r="S5" s="33" t="str">
         <f>H5</f>
         <v>令和　　年　　月　　日</v>
       </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="38" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="L7" t="s">
         <v>3</v>
       </c>
@@ -992,26 +1003,26 @@
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="L8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="23" t="str">
+      <c r="M8" s="20" t="str">
         <f>IF(B8="","",B8)</f>
         <v/>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1019,10 +1030,10 @@
         <v>7</v>
       </c>
       <c r="K9" s="9"/>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="22"/>
+      <c r="S9" s="37"/>
       <c r="T9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1034,27 +1045,27 @@
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="11"/>
       <c r="L10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="23" t="str">
+      <c r="M10" s="20" t="str">
         <f>IF(B10="","",B10)</f>
         <v/>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
@@ -1065,82 +1076,82 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="30"/>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="31" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="28" t="str">
+      <c r="M13" s="26" t="str">
         <f>IF(B13="","",B13)</f>
         <v/>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="31" t="s">
         <v>11</v>
       </c>
       <c r="R13" s="30" t="str">
         <f>IF(G13="","",G13)</f>
         <v/>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="S13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="31" t="s">
         <v>13</v>
       </c>
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="5"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="17" t="str">
+      <c r="L14" s="16"/>
+      <c r="M14" s="28" t="str">
         <f>IF(B14="","",B14)</f>
         <v/>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
       <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
@@ -1150,91 +1161,91 @@
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="14"/>
       <c r="L16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="19" t="str">
+      <c r="M16" s="34" t="str">
         <f>IF(B16="","",B16)</f>
         <v/>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="21"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
     </row>
     <row r="17" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="14"/>
       <c r="L17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="19" t="str">
+      <c r="M17" s="34" t="str">
         <f>IF(B17="","",B17)</f>
         <v/>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="21"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
     </row>
     <row r="18" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="14"/>
       <c r="L18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="19" t="str">
+      <c r="M18" s="34" t="str">
         <f>IF(B18="","",B18)</f>
         <v/>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="21"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
@@ -1259,7 +1270,32 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="M8:P8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H2:J2"/>
@@ -1271,31 +1307,7 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
